--- a/data/trans_orig/P33B_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R2-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>16218</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6695</v>
+        <v>6837</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35029</v>
+        <v>33258</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03977074061727978</v>
+        <v>0.03977074061727979</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01641775141380008</v>
+        <v>0.01676579165224017</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08589924555241282</v>
+        <v>0.08155650121280457</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -762,19 +762,19 @@
         <v>30623</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16601</v>
+        <v>17332</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48810</v>
+        <v>49034</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08447544054266397</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04579486408733897</v>
+        <v>0.04781176831835953</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1346428177022255</v>
+        <v>0.1352628512221531</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -783,19 +783,19 @@
         <v>46842</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31143</v>
+        <v>30865</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71180</v>
+        <v>69476</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0608091452344903</v>
+        <v>0.06080914523449029</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0404291123076223</v>
+        <v>0.04006917202191678</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09240430973356931</v>
+        <v>0.09019221821644621</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>391575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>372764</v>
+        <v>374535</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>401098</v>
+        <v>400956</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9602292593827204</v>
+        <v>0.9602292593827203</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9141007544475878</v>
+        <v>0.9184434987871952</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9835822485862001</v>
+        <v>0.9832342083477598</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -833,19 +833,19 @@
         <v>331889</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>313702</v>
+        <v>313478</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>345911</v>
+        <v>345180</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9155245594573359</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8653571822977744</v>
+        <v>0.8647371487778468</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9542051359126608</v>
+        <v>0.9521882316816401</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>357</v>
@@ -854,19 +854,19 @@
         <v>723463</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>699125</v>
+        <v>700829</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>739162</v>
+        <v>739440</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9391908547655097</v>
+        <v>0.9391908547655096</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9075956902664307</v>
+        <v>0.9098077817835539</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9595708876923776</v>
+        <v>0.9599308279780834</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>28530</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16462</v>
+        <v>17453</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44608</v>
+        <v>43521</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0598240819821041</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03451855347264516</v>
+        <v>0.03659656286654222</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09353879702938296</v>
+        <v>0.09126066440476452</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -979,19 +979,19 @@
         <v>42087</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29871</v>
+        <v>31033</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56382</v>
+        <v>57900</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.083991203685524</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05961188447066328</v>
+        <v>0.06193129906953918</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1125210457955731</v>
+        <v>0.1155501277640743</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -1000,19 +1000,19 @@
         <v>70616</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52637</v>
+        <v>53825</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89508</v>
+        <v>92714</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07220656250319031</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05382266709325824</v>
+        <v>0.0550375003988593</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09152447767239827</v>
+        <v>0.09480242658230476</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>448360</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>432282</v>
+        <v>433369</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>460428</v>
+        <v>459437</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9401759180178959</v>
+        <v>0.9401759180178958</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9064612029706146</v>
+        <v>0.9087393355952356</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9654814465273547</v>
+        <v>0.9634034371334577</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>422</v>
@@ -1050,19 +1050,19 @@
         <v>458996</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>444701</v>
+        <v>443183</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>471212</v>
+        <v>470050</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.916008796314476</v>
+        <v>0.9160087963144761</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8874789542044269</v>
+        <v>0.8844498722359257</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9403881155293367</v>
+        <v>0.9380687009304609</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>704</v>
@@ -1071,19 +1071,19 @@
         <v>907357</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>888465</v>
+        <v>885259</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>925336</v>
+        <v>924148</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9277934374968096</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9084755223276018</v>
+        <v>0.9051975734176954</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9461773329067419</v>
+        <v>0.9449624996011406</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>64131</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48945</v>
+        <v>49204</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81981</v>
+        <v>82276</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1032969585408361</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07883673773685794</v>
+        <v>0.07925413194622137</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1320499097084965</v>
+        <v>0.1325247606564948</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>126</v>
@@ -1196,19 +1196,19 @@
         <v>94781</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78870</v>
+        <v>80664</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>110535</v>
+        <v>111113</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1523467238345893</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1267722533856491</v>
+        <v>0.1296562776632829</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1776694312074324</v>
+        <v>0.1785980478416079</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>181</v>
@@ -1217,19 +1217,19 @@
         <v>158911</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>137248</v>
+        <v>138660</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>183321</v>
+        <v>182201</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1278475391131438</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1104184799491637</v>
+        <v>0.1115547931757977</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1474855001720068</v>
+        <v>0.1465846647964909</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>556706</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>538856</v>
+        <v>538561</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>571892</v>
+        <v>571633</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.896703041459164</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8679500902915034</v>
+        <v>0.8674752393435055</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9211632622631422</v>
+        <v>0.920745868053779</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>720</v>
@@ -1267,19 +1267,19 @@
         <v>527358</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>511604</v>
+        <v>511026</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>543269</v>
+        <v>541475</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8476532761654109</v>
+        <v>0.8476532761654106</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8223305687925675</v>
+        <v>0.8214019521583922</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.873227746614351</v>
+        <v>0.8703437223367171</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1211</v>
@@ -1288,19 +1288,19 @@
         <v>1084065</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1059655</v>
+        <v>1060775</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1105728</v>
+        <v>1104316</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8721524608868564</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8525144998279929</v>
+        <v>0.8534153352035091</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8895815200508362</v>
+        <v>0.8884452068242025</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>103121</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84392</v>
+        <v>85488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123749</v>
+        <v>123056</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1471862675054542</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1204540763861791</v>
+        <v>0.1220181575936949</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1766291119310575</v>
+        <v>0.1756393046906468</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>251</v>
@@ -1413,19 +1413,19 @@
         <v>164381</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>147865</v>
+        <v>146145</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>183635</v>
+        <v>181740</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2231940234803707</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2007689870483581</v>
+        <v>0.1984336458885688</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2493370191346058</v>
+        <v>0.2467639887816269</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>345</v>
@@ -1434,19 +1434,19 @@
         <v>267502</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>243294</v>
+        <v>241546</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>295570</v>
+        <v>294266</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1861389212350918</v>
+        <v>0.1861389212350919</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1692936241693063</v>
+        <v>0.1680773366410588</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2056695558589706</v>
+        <v>0.2047621946159654</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>597496</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>576868</v>
+        <v>577561</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>616225</v>
+        <v>615129</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8528137324945458</v>
+        <v>0.8528137324945457</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8233708880689427</v>
+        <v>0.8243606953093527</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8795459236138209</v>
+        <v>0.8779818424063049</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>889</v>
@@ -1484,19 +1484,19 @@
         <v>572114</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>552860</v>
+        <v>554755</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>588630</v>
+        <v>590350</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7768059765196292</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7506629808653944</v>
+        <v>0.7532360112183735</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7992310129516418</v>
+        <v>0.8015663541114315</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1460</v>
@@ -1505,19 +1505,19 @@
         <v>1169610</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1141542</v>
+        <v>1142846</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1193818</v>
+        <v>1195566</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.813861078764908</v>
+        <v>0.8138610787649081</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7943304441410288</v>
+        <v>0.7952378053840343</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8307063758306935</v>
+        <v>0.8319226633589412</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>105865</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>88349</v>
+        <v>88871</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>124120</v>
+        <v>123554</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1740449102853114</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1452481917446157</v>
+        <v>0.1461061784972593</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.204056047229041</v>
+        <v>0.2031251944023278</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>312</v>
@@ -1630,19 +1630,19 @@
         <v>196273</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>179380</v>
+        <v>179379</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>215417</v>
+        <v>214732</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3230334214036487</v>
+        <v>0.3230334214036486</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2952304920566393</v>
+        <v>0.2952277214203713</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3545417007881977</v>
+        <v>0.3534133264738725</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>431</v>
@@ -1651,19 +1651,19 @@
         <v>302138</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>277039</v>
+        <v>276636</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>326849</v>
+        <v>327133</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2484980585378314</v>
+        <v>0.2484980585378315</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.227855136580994</v>
+        <v>0.2275233468978754</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2688220597934025</v>
+        <v>0.2690550929403706</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>502400</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>484145</v>
+        <v>484711</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>519916</v>
+        <v>519394</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8259550897146888</v>
+        <v>0.8259550897146886</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7959439527709591</v>
+        <v>0.7968748055976721</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8547518082553842</v>
+        <v>0.8538938215027406</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>688</v>
@@ -1701,19 +1701,19 @@
         <v>411321</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>392177</v>
+        <v>392862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>428214</v>
+        <v>428215</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6769665785963513</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6454582992118021</v>
+        <v>0.6465866735261275</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7047695079433605</v>
+        <v>0.7047722785796288</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1231</v>
@@ -1722,19 +1722,19 @@
         <v>913720</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>889009</v>
+        <v>888725</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>938819</v>
+        <v>939222</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7515019414621685</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7311779402065974</v>
+        <v>0.7309449070596294</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7721448634190059</v>
+        <v>0.7724766531021245</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>83792</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>70270</v>
+        <v>70415</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>96844</v>
+        <v>97258</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2058355521273148</v>
+        <v>0.2058355521273147</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.172619459060897</v>
+        <v>0.1729755539784059</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2378993310134226</v>
+        <v>0.2389163459189801</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>252</v>
@@ -1847,19 +1847,19 @@
         <v>140388</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>127405</v>
+        <v>126035</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>154502</v>
+        <v>154890</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3196696777735905</v>
+        <v>0.3196696777735904</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2901065071022653</v>
+        <v>0.2869864267310637</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3518068762385708</v>
+        <v>0.352691273022663</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>372</v>
@@ -1868,19 +1868,19 @@
         <v>224180</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>201368</v>
+        <v>204197</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>243931</v>
+        <v>245497</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2649106956308354</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2379542570925592</v>
+        <v>0.2412971928211361</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2882501368106845</v>
+        <v>0.2901010458055402</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>323288</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>310236</v>
+        <v>309822</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>336810</v>
+        <v>336665</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7941644478726851</v>
+        <v>0.7941644478726853</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7621006689865775</v>
+        <v>0.7610836540810197</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8273805409391031</v>
+        <v>0.8270244460215941</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>575</v>
@@ -1918,19 +1918,19 @@
         <v>298778</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>284664</v>
+        <v>284276</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>311761</v>
+        <v>313131</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6803303222264097</v>
+        <v>0.6803303222264095</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6481931237614293</v>
+        <v>0.647308726977337</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7098934928977347</v>
+        <v>0.7130135732689362</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1025</v>
@@ -1939,19 +1939,19 @@
         <v>622066</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>602315</v>
+        <v>600749</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>644878</v>
+        <v>642049</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7350893043691645</v>
+        <v>0.7350893043691648</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7117498631893155</v>
+        <v>0.70989895419446</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7620457429074408</v>
+        <v>0.758702807178864</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>91064</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>77943</v>
+        <v>78085</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>105109</v>
+        <v>104820</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2935685854635793</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2512679218440452</v>
+        <v>0.2517256585483489</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3388459452872493</v>
+        <v>0.337912987301689</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>315</v>
@@ -2064,19 +2064,19 @@
         <v>171740</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>156319</v>
+        <v>157255</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>187467</v>
+        <v>189349</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3696445607976804</v>
+        <v>0.3696445607976803</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3364533846689623</v>
+        <v>0.3384684498000993</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4034951539228558</v>
+        <v>0.407545669365746</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>452</v>
@@ -2085,19 +2085,19 @@
         <v>262805</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>244073</v>
+        <v>243966</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>283716</v>
+        <v>284892</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3391871271495442</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3150112801693625</v>
+        <v>0.3148726394267654</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3661768683242417</v>
+        <v>0.3676937193676129</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>219134</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>205089</v>
+        <v>205378</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>232255</v>
+        <v>232113</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7064314145364204</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6611540547127506</v>
+        <v>0.6620870126983108</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7487320781559547</v>
+        <v>0.7482743414516512</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>566</v>
@@ -2135,19 +2135,19 @@
         <v>292869</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>277142</v>
+        <v>275260</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>308290</v>
+        <v>307354</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6303554392023195</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5965048460771436</v>
+        <v>0.592454330634254</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6635466153310372</v>
+        <v>0.6615315501999007</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>887</v>
@@ -2156,19 +2156,19 @@
         <v>512002</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>491091</v>
+        <v>489915</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>530734</v>
+        <v>530841</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6608128728504558</v>
+        <v>0.6608128728504556</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6338231316757583</v>
+        <v>0.6323062806323871</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6849887198306375</v>
+        <v>0.6851273605732345</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>492721</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>446626</v>
+        <v>450804</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>532240</v>
+        <v>536863</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1395145783794931</v>
+        <v>0.1395145783794932</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1264628204025781</v>
+        <v>0.1276458299625879</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1507044689306758</v>
+        <v>0.1520134799894528</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1309</v>
@@ -2281,19 +2281,19 @@
         <v>840273</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>793467</v>
+        <v>797868</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>886033</v>
+        <v>887079</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2250572738734859</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2125207898458497</v>
+        <v>0.2136995181431914</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2373134403303522</v>
+        <v>0.2375936722889594</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1861</v>
@@ -2302,19 +2302,19 @@
         <v>1332994</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1273312</v>
+        <v>1270987</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1394926</v>
+        <v>1395980</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1834746361710545</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1752599188339788</v>
+        <v>0.1749398094854767</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1919989841505105</v>
+        <v>0.1921440330845332</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>3038959</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2999440</v>
+        <v>2994817</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3085054</v>
+        <v>3080876</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8604854216205067</v>
+        <v>0.8604854216205068</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8492955310693238</v>
+        <v>0.8479865200105471</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8735371795974218</v>
+        <v>0.8723541700374119</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4052</v>
@@ -2352,19 +2352,19 @@
         <v>2893325</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2847565</v>
+        <v>2846519</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2940131</v>
+        <v>2935730</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.774942726126514</v>
+        <v>0.7749427261265139</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7626865596696477</v>
+        <v>0.7624063277110408</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7874792101541502</v>
+        <v>0.7863004818568086</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6875</v>
@@ -2373,19 +2373,19 @@
         <v>5932285</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5870353</v>
+        <v>5869299</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5991967</v>
+        <v>5994292</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8165253638289455</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8080010158494895</v>
+        <v>0.8078559669154678</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8247400811660217</v>
+        <v>0.8250601905145234</v>
       </c>
     </row>
     <row r="27">
